--- a/backend/media/data_excel/tanlangan_malumotlar.xlsx
+++ b/backend/media/data_excel/tanlangan_malumotlar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elmurod uh oih</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Eshmat uh oih</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Normamat uh oih</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nurmat uh oih</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Toshmat uh oih</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>kuh uh oih</t>
+          <t>diquwhe - True - ojisoiejd - 11 - Eshmat uh oih</t>
         </is>
       </c>
     </row>

--- a/backend/media/data_excel/tanlangan_malumotlar.xlsx
+++ b/backend/media/data_excel/tanlangan_malumotlar.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>diquwhe - True - ojisoiejd - 11 - Eshmat uh oih</t>
+          <t>2 - True - Test Room Type - 12 - Avaz Hazratov None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 - True - Test Room Type - 4 - Avaz2 Hazratov2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 - True - Test Room Type - 12 - Avaz4 Hazratov4 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 - True - Test Room Type - 12 - Avaz6 Hazratov6 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 - True - Test Room Type - 12 - Avaz2 Hazratov2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 - True - Test Room Type - 4 - Avaz3 Hazratov3 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/backend/media/data_excel/tanlangan_malumotlar.xlsx
+++ b/backend/media/data_excel/tanlangan_malumotlar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,27 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 - True - Test Room Type - 12 - Avaz2 Hazratov2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 - True - Test Room Type - 4 - Avaz2 Hazratov2 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 - True - Test Room Type - 4 - Avaz2 Hazratov2 </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
